--- a/data/trans_orig/CONS_DIG-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en País Vasco</t>
+          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en Andalucia</t>
+          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en C.Valenciana</t>
+          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DIG-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9881</t>
+          <t>8959</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7346</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12788</t>
+          <t>11768</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17315</t>
+          <t>16718</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14358</t>
+          <t>13830</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20937</t>
+          <t>20089</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>27196</t>
+          <t>25677</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23284</t>
+          <t>21916</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32060</t>
+          <t>29909</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>14,66%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78183</t>
+          <t>73583</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75276</t>
+          <t>70774</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80718</t>
+          <t>75789</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>104734</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>106807</t>
+          <t>101363</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>113386</t>
+          <t>107622</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>188613</t>
+          <t>178317</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>183749</t>
+          <t>174085</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>192525</t>
+          <t>182078</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>89,26%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40528</t>
+          <t>36745</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35668</t>
+          <t>32220</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46439</t>
+          <t>42018</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39681</t>
+          <t>38289</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34555</t>
+          <t>33697</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45342</t>
+          <t>43610</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>80209</t>
+          <t>75034</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>73550</t>
+          <t>68245</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>88216</t>
+          <t>82546</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>412963</t>
+          <t>424934</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>407052</t>
+          <t>419661</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>417823</t>
+          <t>429459</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>392121</t>
+          <t>406068</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>386460</t>
+          <t>400747</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>397247</t>
+          <t>410660</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>805084</t>
+          <t>831001</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>797077</t>
+          <t>823489</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>811743</t>
+          <t>837790</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>92,47%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7299</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5321</t>
+          <t>6215</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9763</t>
+          <t>11475</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8785</t>
+          <t>9286</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6213</t>
+          <t>6731</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11581</t>
+          <t>11947</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>16084</t>
+          <t>17758</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>13162</t>
+          <t>14310</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20189</t>
+          <t>21565</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>144326</t>
+          <t>167090</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>141862</t>
+          <t>164086</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>146304</t>
+          <t>169346</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>185452</t>
+          <t>218708</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>182656</t>
+          <t>216047</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>188024</t>
+          <t>221263</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>329779</t>
+          <t>385797</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>325674</t>
+          <t>381990</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>332701</t>
+          <t>389245</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57709</t>
+          <t>54175</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51414</t>
+          <t>48309</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64785</t>
+          <t>61010</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>65781</t>
+          <t>64293</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58739</t>
+          <t>57830</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>72703</t>
+          <t>71174</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>123490</t>
+          <t>118469</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>115209</t>
+          <t>109291</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>134315</t>
+          <t>127373</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>635472</t>
+          <t>665606</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>628396</t>
+          <t>658771</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>641767</t>
+          <t>671472</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>688003</t>
+          <t>729510</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>681081</t>
+          <t>722629</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>695045</t>
+          <t>735973</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1323475</t>
+          <t>1395115</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1312650</t>
+          <t>1386211</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1331756</t>
+          <t>1404293</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>92,78%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13458</t>
+          <t>13476</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28757</t>
+          <t>28127</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39902</t>
+          <t>40864</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>60026</t>
+          <t>61098</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>58710</t>
+          <t>58862</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>83423</t>
+          <t>83344</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,37%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>199540</t>
+          <t>200170</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>214839</t>
+          <t>214821</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>335064</t>
+          <t>333992</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>355188</t>
+          <t>354226</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>539964</t>
+          <t>540043</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>564677</t>
+          <t>564525</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>90,56%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30944</t>
+          <t>28230</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77804</t>
+          <t>75889</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38640</t>
+          <t>34329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>76637</t>
+          <t>74578</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>77709</t>
+          <t>79844</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>142917</t>
+          <t>144157</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1331589</t>
+          <t>1333504</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1378449</t>
+          <t>1381163</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1309174</t>
+          <t>1311233</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1347171</t>
+          <t>1351482</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2652287</t>
+          <t>2651047</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2717495</t>
+          <t>2715360</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,14%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18686</t>
+          <t>17842</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36497</t>
+          <t>36945</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>16112</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31778</t>
+          <t>30519</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>38769</t>
+          <t>38673</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>61630</t>
+          <t>62043</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>423304</t>
+          <t>422856</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>441115</t>
+          <t>441959</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>411596</t>
+          <t>412855</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>426807</t>
+          <t>427262</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>841545</t>
+          <t>841132</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>864406</t>
+          <t>864502</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>95,72%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69413</t>
+          <t>68431</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>130152</t>
+          <t>128484</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>94029</t>
+          <t>94115</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>154981</t>
+          <t>155176</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>180066</t>
+          <t>188491</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>271931</t>
+          <t>269493</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1967339</t>
+          <t>1969007</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2028078</t>
+          <t>2029060</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2069295</t>
+          <t>2069100</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2130247</t>
+          <t>2130161</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4049835</t>
+          <t>4052273</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4141700</t>
+          <t>4133275</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>95,64%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DIG-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8959</t>
+          <t>21623</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6753</t>
+          <t>14142</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11768</t>
+          <t>29258</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16718</t>
+          <t>54393</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13830</t>
+          <t>43554</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20089</t>
+          <t>65741</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>124</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>25677</t>
+          <t>76016</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>21916</t>
+          <t>63061</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>29909</t>
+          <t>89661</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>13,03%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73583</t>
+          <t>233769</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70774</t>
+          <t>226134</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75789</t>
+          <t>241250</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,74%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,82%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>599</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>104734</t>
+          <t>378204</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>101363</t>
+          <t>366856</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>107622</t>
+          <t>389043</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>861</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>178317</t>
+          <t>611973</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>174085</t>
+          <t>598328</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>182078</t>
+          <t>624928</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>90,83%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36745</t>
+          <t>54237</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32220</t>
+          <t>40985</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42018</t>
+          <t>70351</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38289</t>
+          <t>65002</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33697</t>
+          <t>53307</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43610</t>
+          <t>77671</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>174</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>75034</t>
+          <t>119239</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>68245</t>
+          <t>102677</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>82546</t>
+          <t>138743</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>424934</t>
+          <t>1233450</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>419661</t>
+          <t>1217336</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>429459</t>
+          <t>1246702</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>406068</t>
+          <t>1205739</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>400747</t>
+          <t>1193070</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>410660</t>
+          <t>1217434</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>2576</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>831001</t>
+          <t>2439189</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>823489</t>
+          <t>2419685</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>837790</t>
+          <t>2455751</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>95,99%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8471</t>
+          <t>29775</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>20805</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11475</t>
+          <t>40779</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9286</t>
+          <t>27385</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6731</t>
+          <t>18963</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11947</t>
+          <t>35999</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17758</t>
+          <t>57160</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>14310</t>
+          <t>45714</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21565</t>
+          <t>70590</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>7,02%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>167090</t>
+          <t>480104</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>164086</t>
+          <t>469100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>169346</t>
+          <t>489074</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>624</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>218708</t>
+          <t>468521</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>216047</t>
+          <t>459907</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>221263</t>
+          <t>476943</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>385797</t>
+          <t>948626</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>381990</t>
+          <t>935196</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>389245</t>
+          <t>960072</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>95,45%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54175</t>
+          <t>105635</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48309</t>
+          <t>86847</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61010</t>
+          <t>126974</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>250</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64293</t>
+          <t>146780</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>57830</t>
+          <t>129329</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71174</t>
+          <t>167470</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>377</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>118469</t>
+          <t>252415</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>109291</t>
+          <t>226189</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>127373</t>
+          <t>279232</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>6,57%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3732</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>665606</t>
+          <t>1947324</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>658771</t>
+          <t>1925985</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>671472</t>
+          <t>1966112</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>729510</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>722629</t>
+          <t>2031774</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>735973</t>
+          <t>2069915</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7804</t>
+          <t>4511</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1395115</t>
+          <t>3999788</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1386211</t>
+          <t>3972971</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1404293</t>
+          <t>4026014</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>94,68%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20330</t>
+          <t>26120</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13476</t>
+          <t>20687</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28127</t>
+          <t>32684</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50146</t>
+          <t>36357</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40864</t>
+          <t>28803</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>61098</t>
+          <t>43440</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>179</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>70476</t>
+          <t>62477</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>58862</t>
+          <t>53580</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>83344</t>
+          <t>72484</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>14,81%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>207967</t>
+          <t>189676</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>200170</t>
+          <t>183112</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>214821</t>
+          <t>195109</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>547</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>344944</t>
+          <t>237324</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>333992</t>
+          <t>230241</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>354226</t>
+          <t>244878</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,31%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>84,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>552911</t>
+          <t>427001</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>540043</t>
+          <t>416994</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>564525</t>
+          <t>435898</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>85,19%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>89,05%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54657</t>
+          <t>39912</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28230</t>
+          <t>31296</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75889</t>
+          <t>50474</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57643</t>
+          <t>44058</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34329</t>
+          <t>35973</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>74578</t>
+          <t>54395</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>171</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>112301</t>
+          <t>83971</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>79844</t>
+          <t>71428</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>144157</t>
+          <t>97445</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1354736</t>
+          <t>822106</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1333504</t>
+          <t>811544</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1381163</t>
+          <t>830722</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1328168</t>
+          <t>824122</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1311233</t>
+          <t>813785</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1351482</t>
+          <t>832207</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2682903</t>
+          <t>1646227</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2651047</t>
+          <t>1632753</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2715360</t>
+          <t>1658770</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>95,87%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26590</t>
+          <t>12969</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17842</t>
+          <t>8286</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36945</t>
+          <t>19566</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22616</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16112</t>
+          <t>8611</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30519</t>
+          <t>20166</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>49206</t>
+          <t>25869</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>38673</t>
+          <t>18873</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>62043</t>
+          <t>33927</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>626</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>433211</t>
+          <t>365584</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>422856</t>
+          <t>358987</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>441959</t>
+          <t>370267</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>420758</t>
+          <t>403975</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>412855</t>
+          <t>396709</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>427262</t>
+          <t>408264</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>853969</t>
+          <t>769559</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>841132</t>
+          <t>761501</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>864502</t>
+          <t>776555</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>97,63%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>101577</t>
+          <t>79001</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68431</t>
+          <t>68754</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>128484</t>
+          <t>92266</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>208</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>130406</t>
+          <t>93316</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>94115</t>
+          <t>81112</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>155176</t>
+          <t>107806</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>404</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>231982</t>
+          <t>172317</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>188491</t>
+          <t>153986</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>269493</t>
+          <t>188944</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1995914</t>
+          <t>1377366</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1969007</t>
+          <t>1364101</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2029060</t>
+          <t>1387613</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2659</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2093870</t>
+          <t>1465421</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2069100</t>
+          <t>1450931</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2130161</t>
+          <t>1477625</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4511</t>
+          <t>5307</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4089784</t>
+          <t>2842787</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4052273</t>
+          <t>2826160</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4133275</t>
+          <t>2861118</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>94,89%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26120</t>
+          <t>8959</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20687</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32684</t>
+          <t>11768</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36357</t>
+          <t>16718</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28803</t>
+          <t>13830</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43440</t>
+          <t>20089</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>162</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>62477</t>
+          <t>25677</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>53580</t>
+          <t>21916</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>72484</t>
+          <t>29909</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,66%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>446</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>189676</t>
+          <t>73583</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>183112</t>
+          <t>70774</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>195109</t>
+          <t>75789</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>650</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>237324</t>
+          <t>104734</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>230241</t>
+          <t>101363</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>244878</t>
+          <t>107622</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,13%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>427001</t>
+          <t>178317</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>416994</t>
+          <t>174085</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>435898</t>
+          <t>182078</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>89,05%</t>
+          <t>89,26%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39912</t>
+          <t>36745</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31296</t>
+          <t>32220</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50474</t>
+          <t>42018</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>230</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44058</t>
+          <t>38289</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35973</t>
+          <t>33697</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54395</t>
+          <t>43610</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>452</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>83971</t>
+          <t>75034</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>71428</t>
+          <t>68245</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>97445</t>
+          <t>82546</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>2425</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>822106</t>
+          <t>424934</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>811544</t>
+          <t>419661</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>830722</t>
+          <t>429459</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>2273</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>824122</t>
+          <t>406068</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>813785</t>
+          <t>400747</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>832207</t>
+          <t>410660</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2988</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1646227</t>
+          <t>831001</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1632753</t>
+          <t>823489</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1658770</t>
+          <t>837790</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>92,47%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12969</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8286</t>
+          <t>6215</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19566</t>
+          <t>11475</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>9286</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8611</t>
+          <t>6731</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20166</t>
+          <t>11947</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>25869</t>
+          <t>17758</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18873</t>
+          <t>14310</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33927</t>
+          <t>21565</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>861</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>365584</t>
+          <t>167090</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>358987</t>
+          <t>164086</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>370267</t>
+          <t>169346</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>403975</t>
+          <t>218708</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>396709</t>
+          <t>216047</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>408264</t>
+          <t>221263</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>769559</t>
+          <t>385797</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>761501</t>
+          <t>381990</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>776555</t>
+          <t>389245</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79001</t>
+          <t>54175</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68754</t>
+          <t>48309</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92266</t>
+          <t>61010</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>385</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93316</t>
+          <t>64293</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>81112</t>
+          <t>57830</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>107806</t>
+          <t>71174</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>710</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>172317</t>
+          <t>118469</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>153986</t>
+          <t>109291</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>188944</t>
+          <t>127373</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1377366</t>
+          <t>665606</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1364101</t>
+          <t>658771</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1387613</t>
+          <t>671472</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2659</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1465421</t>
+          <t>729510</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1450931</t>
+          <t>722629</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1477625</t>
+          <t>735973</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5307</t>
+          <t>7804</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2842787</t>
+          <t>1395115</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2826160</t>
+          <t>1386211</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2861118</t>
+          <t>1404293</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>92,78%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
